--- a/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>ALDS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,61 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -740,16 +747,22 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -769,16 +782,22 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -798,8 +817,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +836,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +867,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +902,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -878,28 +917,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +972,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,37 +988,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -975,28 +1034,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1073,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1028,17 +1095,23 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1066,8 +1139,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1075,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1086,46 +1165,58 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +1244,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1279,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,8 +1489,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1376,46 +1515,58 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1594,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,8 +1703,10 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1547,22 +1720,28 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,8 +1769,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1619,8 +1804,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1630,26 +1821,32 @@
       <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1657,10 +1854,10 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1668,17 +1865,23 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1686,57 +1889,69 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>500</v>
       </c>
       <c r="G47" s="3">
+        <v>500</v>
+      </c>
+      <c r="H47" s="3">
+        <v>500</v>
+      </c>
+      <c r="I47" s="3">
         <v>300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1764,8 +1979,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +2014,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,8 +2084,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1880,8 +2119,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,37 +2154,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3">
         <v>700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>600</v>
-      </c>
-      <c r="F54" s="3">
-        <v>600</v>
       </c>
       <c r="G54" s="3">
         <v>600</v>
       </c>
       <c r="H54" s="3">
+        <v>600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>600</v>
+      </c>
+      <c r="J54" s="3">
         <v>700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,8 +2223,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1976,36 +2237,42 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
-      </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -2013,75 +2280,93 @@
       <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>800</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,8 +2394,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2138,8 +2429,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,37 +2534,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>800</v>
+      </c>
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2654,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,37 +2724,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,37 +2864,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>500</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2934,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +3028,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2662,8 +3059,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3234,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,8 +3288,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2878,8 +3319,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,8 +3389,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2951,22 +3410,28 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3443,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,37 +3579,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,8 +3649,14 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3161,24 +3664,30 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>ALDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,69 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,8 +761,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -764,11 +778,11 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -788,8 +802,14 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,11 +819,11 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -823,8 +843,14 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +864,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,8 +901,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +942,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -917,16 +957,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -934,17 +974,23 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1024,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,43 +1042,51 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1034,34 +1094,40 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="L18" s="3">
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,8 +1141,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1084,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1101,17 +1169,23 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1145,13 +1219,19 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1160,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1171,52 +1251,64 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1250,8 +1342,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1383,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1506,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1547,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1588,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,8 +1629,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1504,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1521,52 +1661,64 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1752,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1860,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,13 +1877,15 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -1726,22 +1900,28 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,8 +1955,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1810,8 +1996,14 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1821,11 +2013,11 @@
       <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1836,34 +2028,40 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -1871,87 +2069,105 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E46" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
+        <v>300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>200</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>500</v>
       </c>
       <c r="I47" s="3">
+        <v>500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>500</v>
+      </c>
+      <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1985,8 +2201,14 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2242,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2283,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,8 +2324,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2125,8 +2365,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,43 +2406,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>500</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>600</v>
       </c>
       <c r="I54" s="3">
         <v>600</v>
       </c>
       <c r="J54" s="3">
+        <v>600</v>
+      </c>
+      <c r="K54" s="3">
+        <v>600</v>
+      </c>
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2468,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,13 +2485,15 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -2243,42 +2505,48 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>500</v>
+      </c>
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -2286,92 +2554,110 @@
       <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
       </c>
       <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>100</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2400,8 +2686,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2435,8 +2727,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2768,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2809,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,43 +2850,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2912,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2949,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2990,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +3031,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,43 +3072,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-4400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-3900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +3154,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3195,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,43 +3236,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3318,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3426,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3065,8 +3463,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3504,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3545,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3586,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3627,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,43 +3668,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,8 +3730,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3325,8 +3767,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3808,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,13 +3849,19 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3416,22 +3876,28 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3911,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3948,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3989,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +4030,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,43 +4071,55 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,39 +4153,51 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>ALDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,72 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,8 +770,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -784,8 +790,8 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -808,8 +814,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +834,8 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -849,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +878,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +964,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -963,13 +982,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -980,8 +999,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -989,8 +1008,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,40 +1069,41 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
       </c>
       <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1085,8 +1111,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,31 +1123,31 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-500</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
       </c>
       <c r="K18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
+      <c r="M18" s="3">
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
@@ -1126,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,8 +1175,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1152,11 +1185,11 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1175,8 +1208,8 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1184,8 +1217,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1225,8 +1261,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1234,17 +1273,17 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1257,8 +1296,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1266,40 +1305,43 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-500</v>
       </c>
       <c r="J23" s="3">
         <v>-500</v>
       </c>
       <c r="K23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1307,8 +1349,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1348,8 +1393,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,40 +1437,43 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-500</v>
       </c>
       <c r="J26" s="3">
         <v>-500</v>
       </c>
       <c r="K26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1430,40 +1481,43 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-500</v>
       </c>
       <c r="J27" s="3">
         <v>-500</v>
       </c>
       <c r="K27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1471,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,8 +1701,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1644,11 +1713,11 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1667,8 +1736,8 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1676,40 +1745,43 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-500</v>
       </c>
       <c r="J33" s="3">
         <v>-500</v>
       </c>
       <c r="K33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -1717,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,40 +1833,43 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-500</v>
       </c>
       <c r="J35" s="3">
         <v>-500</v>
       </c>
       <c r="K35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -1799,54 +1877,60 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,16 +1964,17 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -1906,22 +1992,25 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,8 +2050,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2002,8 +2094,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2019,8 +2114,8 @@
       <c r="G44" s="3">
         <v>0</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -2034,8 +2129,8 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2043,19 +2138,22 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2064,7 +2162,7 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2075,8 +2173,8 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2084,8 +2182,11 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2093,48 +2194,51 @@
         <v>600</v>
       </c>
       <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2143,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>500</v>
@@ -2152,22 +2256,25 @@
         <v>500</v>
       </c>
       <c r="K47" s="3">
+        <v>500</v>
+      </c>
+      <c r="L47" s="3">
         <v>300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2207,8 +2314,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,8 +2446,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2371,8 +2490,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,8 +2534,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2421,19 +2546,19 @@
         <v>600</v>
       </c>
       <c r="E54" s="3">
+        <v>600</v>
+      </c>
+      <c r="F54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>600</v>
       </c>
       <c r="J54" s="3">
         <v>600</v>
@@ -2442,19 +2567,22 @@
         <v>600</v>
       </c>
       <c r="L54" s="3">
+        <v>600</v>
+      </c>
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,16 +2616,17 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -2511,7 +2641,7 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2519,8 +2649,8 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
@@ -2528,28 +2658,31 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>500</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
       </c>
       <c r="G58" s="3">
+        <v>500</v>
+      </c>
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -2560,8 +2693,8 @@
       <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>100</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2702,19 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
@@ -2587,63 +2723,66 @@
         <v>300</v>
       </c>
       <c r="H59" s="3">
+        <v>300</v>
+      </c>
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>800</v>
       </c>
       <c r="G60" s="3">
         <v>800</v>
       </c>
       <c r="H60" s="3">
+        <v>800</v>
+      </c>
+      <c r="I60" s="3">
         <v>1200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
+      <c r="M60" s="3">
+        <v>200</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
@@ -2651,17 +2790,20 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2692,8 +2834,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2733,8 +2878,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,40 +3010,43 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>800</v>
       </c>
       <c r="G66" s="3">
         <v>800</v>
       </c>
       <c r="H66" s="3">
+        <v>800</v>
+      </c>
+      <c r="I66" s="3">
         <v>1200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>300</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
       </c>
       <c r="K66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
+      <c r="M66" s="3">
+        <v>200</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
@@ -2897,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,49 +3248,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,8 +3424,11 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3251,40 +3436,43 @@
         <v>-800</v>
       </c>
       <c r="E76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-500</v>
       </c>
       <c r="H76" s="3">
         <v>-500</v>
       </c>
       <c r="I76" s="3">
-        <v>300</v>
+        <v>-500</v>
       </c>
       <c r="J76" s="3">
         <v>300</v>
       </c>
       <c r="K76" s="3">
+        <v>300</v>
+      </c>
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,86 +3512,92 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-500</v>
       </c>
       <c r="J81" s="3">
         <v>-500</v>
       </c>
       <c r="K81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -3411,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3625,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3469,8 +3667,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,8 +3887,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3683,31 +3899,31 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
@@ -3715,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,8 +3951,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3773,8 +3993,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,16 +4081,19 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3882,22 +4111,25 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,8 +4319,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4086,40 +4331,43 @@
         <v>300</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,8 +4407,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4168,36 +4419,39 @@
         <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>-200</v>
       </c>
       <c r="L102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>ALDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,76 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -773,8 +777,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -793,8 +800,8 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -817,8 +824,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,8 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -861,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,8 +892,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +984,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -985,13 +1005,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1002,8 +1022,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1011,8 +1031,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,8 +1096,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1079,34 +1106,34 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
       </c>
       <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
@@ -1114,8 +1141,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1123,34 +1153,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-500</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
       </c>
       <c r="L18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
+      <c r="N18" s="3">
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
@@ -1158,8 +1188,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,8 +1209,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1188,11 +1222,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1211,8 +1245,8 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1220,8 +1254,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1264,29 +1301,32 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1299,8 +1339,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1308,43 +1348,46 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-500</v>
       </c>
       <c r="K23" s="3">
         <v>-500</v>
       </c>
       <c r="L23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
@@ -1352,8 +1395,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1396,8 +1442,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,43 +1489,46 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-500</v>
       </c>
       <c r="K26" s="3">
         <v>-500</v>
       </c>
       <c r="L26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
@@ -1484,43 +1536,46 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-500</v>
       </c>
       <c r="K27" s="3">
         <v>-500</v>
       </c>
       <c r="L27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
@@ -1528,8 +1583,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,8 +1771,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1716,11 +1786,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1739,8 +1809,8 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1748,43 +1818,46 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-500</v>
       </c>
       <c r="K33" s="3">
         <v>-500</v>
       </c>
       <c r="L33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
@@ -1792,8 +1865,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,43 +1912,46 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-500</v>
       </c>
       <c r="K35" s="3">
         <v>-500</v>
       </c>
       <c r="L35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
@@ -1880,57 +1959,63 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,19 +2051,20 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -1995,22 +2082,25 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2053,8 +2143,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2097,8 +2190,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2117,8 +2213,8 @@
       <c r="H44" s="3">
         <v>0</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -2132,8 +2228,8 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2141,22 +2237,25 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2165,7 +2264,7 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2176,8 +2275,8 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
@@ -2185,8 +2284,11 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2197,40 +2299,43 @@
         <v>600</v>
       </c>
       <c r="F46" s="3">
+        <v>600</v>
+      </c>
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2240,8 +2345,8 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2250,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>500</v>
@@ -2259,22 +2364,25 @@
         <v>500</v>
       </c>
       <c r="L47" s="3">
+        <v>500</v>
+      </c>
+      <c r="M47" s="3">
         <v>300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2317,8 +2425,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2472,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,8 +2566,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2493,8 +2613,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,8 +2660,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2549,19 +2675,19 @@
         <v>600</v>
       </c>
       <c r="F54" s="3">
+        <v>600</v>
+      </c>
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>600</v>
       </c>
       <c r="K54" s="3">
         <v>600</v>
@@ -2570,19 +2696,22 @@
         <v>600</v>
       </c>
       <c r="M54" s="3">
+        <v>600</v>
+      </c>
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,19 +2747,20 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -2644,7 +2775,7 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2652,8 +2783,8 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
@@ -2661,31 +2792,34 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>500</v>
       </c>
       <c r="G58" s="3">
         <v>500</v>
       </c>
       <c r="H58" s="3">
+        <v>500</v>
+      </c>
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -2696,8 +2830,8 @@
       <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
@@ -2705,19 +2839,22 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -2726,66 +2863,69 @@
         <v>300</v>
       </c>
       <c r="I59" s="3">
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>800</v>
       </c>
       <c r="H60" s="3">
         <v>800</v>
       </c>
       <c r="I60" s="3">
+        <v>800</v>
+      </c>
+      <c r="J60" s="3">
         <v>1200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
+      <c r="N60" s="3">
+        <v>200</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
@@ -2793,20 +2933,23 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2837,8 +2980,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2881,8 +3027,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,43 +3168,46 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>800</v>
       </c>
       <c r="H66" s="3">
         <v>800</v>
       </c>
       <c r="I66" s="3">
+        <v>800</v>
+      </c>
+      <c r="J66" s="3">
         <v>1200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
       </c>
       <c r="L66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
+      <c r="N66" s="3">
+        <v>200</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
@@ -3057,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,52 +3422,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,52 +3610,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="E76" s="3">
         <v>-800</v>
       </c>
       <c r="F76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-500</v>
       </c>
       <c r="I76" s="3">
         <v>-500</v>
       </c>
       <c r="J76" s="3">
-        <v>300</v>
+        <v>-500</v>
       </c>
       <c r="K76" s="3">
         <v>300</v>
       </c>
       <c r="L76" s="3">
+        <v>300</v>
+      </c>
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>500</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,92 +3704,98 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-500</v>
       </c>
       <c r="K81" s="3">
         <v>-500</v>
       </c>
       <c r="L81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
@@ -3608,8 +3803,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,8 +3824,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3670,8 +3869,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,8 +4104,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3902,31 +4119,31 @@
         <v>-200</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
@@ -3934,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,8 +4172,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3996,8 +4217,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,16 +4311,19 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4114,22 +4344,25 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,52 +4565,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
         <v>300</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,8 +4659,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4422,36 +4674,39 @@
         <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>-200</v>
       </c>
       <c r="M102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>ALDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,84 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,8 +788,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -803,11 +817,11 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
@@ -827,8 +841,14 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,11 +870,11 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
@@ -874,8 +894,14 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +919,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -940,8 +968,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1021,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1008,16 +1048,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1025,17 +1065,23 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1127,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,8 +1149,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1106,46 +1160,52 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>800</v>
+      </c>
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+      <c r="P17" s="3">
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1153,46 +1213,52 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
+      <c r="P18" s="3">
+        <v>0</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,8 +1276,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,17 +1290,17 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1248,17 +1316,23 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,8 +1378,14 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1313,16 +1393,16 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1331,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1342,64 +1422,76 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="P23" s="3">
+        <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1445,8 +1537,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,102 +1590,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="P26" s="3">
+        <v>0</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1749,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1802,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1855,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,8 +1908,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1786,17 +1926,17 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1812,64 +1952,76 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3">
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,107 +2067,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3">
+        <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2203,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,25 +2224,27 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E41" s="3">
         <v>300</v>
       </c>
       <c r="F41" s="3">
+        <v>400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>300</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -2085,22 +2259,28 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2146,8 +2326,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2193,13 +2379,19 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -2216,11 +2408,11 @@
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
@@ -2231,46 +2423,52 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2278,17 +2476,23 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2296,57 +2500,63 @@
         <v>600</v>
       </c>
       <c r="E46" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F46" s="3">
         <v>600</v>
       </c>
       <c r="G46" s="3">
+        <v>600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>600</v>
+      </c>
+      <c r="I46" s="3">
         <v>500</v>
-      </c>
-      <c r="H46" s="3">
-        <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
+        <v>300</v>
+      </c>
+      <c r="L46" s="3">
+        <v>200</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2358,31 +2568,37 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>500</v>
       </c>
       <c r="M47" s="3">
+        <v>500</v>
+      </c>
+      <c r="N47" s="3">
+        <v>500</v>
+      </c>
+      <c r="O47" s="3">
         <v>300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>200</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2428,8 +2644,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2475,8 +2697,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2750,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,8 +2803,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2616,8 +2856,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,8 +2909,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2672,46 +2924,52 @@
         <v>600</v>
       </c>
       <c r="E54" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F54" s="3">
         <v>600</v>
       </c>
       <c r="G54" s="3">
+        <v>600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>600</v>
+      </c>
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
-      </c>
-      <c r="K54" s="3">
-        <v>600</v>
-      </c>
-      <c r="L54" s="3">
-        <v>600</v>
       </c>
       <c r="M54" s="3">
         <v>600</v>
       </c>
       <c r="N54" s="3">
+        <v>600</v>
+      </c>
+      <c r="O54" s="3">
+        <v>600</v>
+      </c>
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2987,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,16 +3008,18 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -2766,7 +3028,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -2778,54 +3040,60 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -2833,129 +3101,147 @@
       <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
+        <v>100</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
+        <v>300</v>
+      </c>
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>100</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>900</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>800</v>
+      </c>
+      <c r="F61" s="3">
         <v>1200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2983,8 +3269,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3030,8 +3322,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3375,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3428,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,55 +3481,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3559,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3608,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3661,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3714,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,55 +3767,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-7700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-4400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3873,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3926,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,55 +3979,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>500</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,107 +4085,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3">
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,8 +4221,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3872,8 +4270,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4323,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4376,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4429,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4482,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,8 +4535,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4122,40 +4556,46 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,8 +4613,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4220,8 +4662,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4715,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,8 +4768,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4347,22 +4807,28 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4846,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4895,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4948,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +5001,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,55 +5054,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,51 +5160,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="F102" s="3">
         <v>100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>ALDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,87 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,8 +797,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -823,8 +829,8 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
@@ -847,8 +853,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +885,8 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
@@ -900,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,8 +933,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -974,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1043,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,13 +1073,13 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -1071,8 +1090,8 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1080,8 +1099,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,52 +1176,53 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>800</v>
       </c>
       <c r="G17" s="3">
         <v>800</v>
       </c>
       <c r="H17" s="3">
+        <v>800</v>
+      </c>
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
       </c>
       <c r="O17" s="3">
+        <v>500</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
+      <c r="Q17" s="3">
+        <v>0</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
@@ -1204,8 +1230,11 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1213,43 +1242,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-800</v>
       </c>
       <c r="G18" s="3">
         <v>-800</v>
       </c>
       <c r="H18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-500</v>
       </c>
       <c r="N18" s="3">
         <v>-500</v>
       </c>
       <c r="O18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
+      <c r="Q18" s="3">
+        <v>0</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
@@ -1257,8 +1286,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,8 +1310,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1290,20 +1323,20 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1322,8 +1355,8 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1331,16 +1364,19 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-800</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1384,8 +1420,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1399,23 +1438,23 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1428,8 +1467,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1437,52 +1476,55 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-500</v>
       </c>
       <c r="N23" s="3">
         <v>-500</v>
       </c>
       <c r="O23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
+      <c r="Q23" s="3">
+        <v>0</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
@@ -1490,8 +1532,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1543,8 +1588,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,52 +1644,55 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-500</v>
       </c>
       <c r="N26" s="3">
         <v>-500</v>
       </c>
       <c r="O26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
+      <c r="Q26" s="3">
+        <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
@@ -1649,52 +1700,55 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-500</v>
       </c>
       <c r="N27" s="3">
         <v>-500</v>
       </c>
       <c r="O27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+      <c r="Q27" s="3">
+        <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
@@ -1702,8 +1756,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,8 +1980,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1926,20 +1995,20 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1958,8 +2027,8 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -1967,52 +2036,55 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-500</v>
       </c>
       <c r="N33" s="3">
         <v>-500</v>
       </c>
       <c r="O33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+      <c r="Q33" s="3">
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
@@ -2020,8 +2092,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,52 +2148,55 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-500</v>
       </c>
       <c r="N35" s="3">
         <v>-500</v>
       </c>
       <c r="O35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+      <c r="Q35" s="3">
+        <v>0</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
@@ -2126,66 +2204,72 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,28 +2311,29 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -2265,22 +2351,25 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,8 +2421,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2385,8 +2477,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2394,7 +2489,7 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2414,8 +2509,8 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
@@ -2429,8 +2524,8 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2438,8 +2533,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2450,19 +2548,19 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2471,7 +2569,7 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2482,8 +2580,8 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
@@ -2491,19 +2589,22 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
-      </c>
-      <c r="F46" s="3">
-        <v>600</v>
       </c>
       <c r="G46" s="3">
         <v>600</v>
@@ -2512,40 +2613,43 @@
         <v>600</v>
       </c>
       <c r="I46" s="3">
+        <v>600</v>
+      </c>
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2574,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>500</v>
@@ -2583,22 +2687,25 @@
         <v>500</v>
       </c>
       <c r="O47" s="3">
+        <v>500</v>
+      </c>
+      <c r="P47" s="3">
         <v>300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>200</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2650,8 +2757,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2703,8 +2813,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,8 +2925,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2862,8 +2981,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,19 +3037,22 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>600</v>
       </c>
       <c r="G54" s="3">
         <v>600</v>
@@ -2936,19 +3061,19 @@
         <v>600</v>
       </c>
       <c r="I54" s="3">
+        <v>600</v>
+      </c>
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>600</v>
       </c>
       <c r="N54" s="3">
         <v>600</v>
@@ -2957,19 +3082,22 @@
         <v>600</v>
       </c>
       <c r="P54" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,8 +3139,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3022,16 +3152,16 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -3046,7 +3176,7 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3054,8 +3184,8 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
@@ -3063,40 +3193,43 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>500</v>
       </c>
       <c r="K58" s="3">
+        <v>500</v>
+      </c>
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -3107,8 +3240,8 @@
       <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
+      <c r="Q58" s="3">
+        <v>100</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
@@ -3116,28 +3249,31 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
@@ -3146,75 +3282,78 @@
         <v>300</v>
       </c>
       <c r="L59" s="3">
+        <v>300</v>
+      </c>
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E60" s="3">
         <v>900</v>
       </c>
       <c r="F60" s="3">
+        <v>900</v>
+      </c>
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>800</v>
       </c>
       <c r="K60" s="3">
         <v>800</v>
       </c>
       <c r="L60" s="3">
+        <v>800</v>
+      </c>
+      <c r="M60" s="3">
         <v>1200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
       </c>
       <c r="O60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
+      <c r="Q60" s="3">
+        <v>200</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
@@ -3222,29 +3361,32 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3275,8 +3417,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3328,8 +3473,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,52 +3641,55 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>800</v>
       </c>
       <c r="K66" s="3">
         <v>800</v>
       </c>
       <c r="L66" s="3">
+        <v>800</v>
+      </c>
+      <c r="M66" s="3">
         <v>1200</v>
-      </c>
-      <c r="M66" s="3">
-        <v>300</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
       </c>
       <c r="O66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
+      <c r="Q66" s="3">
+        <v>200</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
@@ -3540,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3943,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4167,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-800</v>
       </c>
       <c r="H76" s="3">
         <v>-800</v>
       </c>
       <c r="I76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-500</v>
       </c>
       <c r="L76" s="3">
         <v>-500</v>
       </c>
       <c r="M76" s="3">
-        <v>300</v>
+        <v>-500</v>
       </c>
       <c r="N76" s="3">
         <v>300</v>
       </c>
       <c r="O76" s="3">
+        <v>300</v>
+      </c>
+      <c r="P76" s="3">
         <v>400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>500</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,110 +4279,116 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-500</v>
       </c>
       <c r="N81" s="3">
         <v>-500</v>
       </c>
       <c r="O81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+      <c r="Q81" s="3">
+        <v>0</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
@@ -4202,8 +4396,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,8 +4420,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4276,8 +4474,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,8 +4754,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4562,31 +4778,31 @@
         <v>-200</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
@@ -4594,8 +4810,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,8 +4834,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4668,8 +4888,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,8 +5000,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4813,22 +5042,25 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,61 +5302,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>300</v>
       </c>
       <c r="H100" s="3">
         <v>300</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,19 +5414,22 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>100</v>
@@ -5187,36 +5438,39 @@
         <v>100</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-200</v>
       </c>
       <c r="P102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>ALDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,91 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -800,8 +804,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -832,8 +839,8 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
@@ -856,8 +863,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,8 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
@@ -912,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,8 +947,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -990,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,8 +1063,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1076,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1093,8 +1113,8 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1102,8 +1122,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,55 +1203,56 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
+        <v>800</v>
+      </c>
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>500</v>
       </c>
       <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
+      <c r="R17" s="3">
+        <v>0</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
@@ -1233,8 +1260,11 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1242,46 +1272,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-800</v>
       </c>
       <c r="H18" s="3">
         <v>-800</v>
       </c>
       <c r="I18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-500</v>
       </c>
       <c r="O18" s="3">
         <v>-500</v>
       </c>
       <c r="P18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
+      <c r="R18" s="3">
+        <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
@@ -1289,8 +1319,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,8 +1344,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1326,20 +1360,20 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1358,8 +1392,8 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1367,8 +1401,11 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1376,11 +1413,11 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1423,8 +1460,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1441,23 +1481,23 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1470,8 +1510,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
@@ -1479,55 +1519,58 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-500</v>
       </c>
       <c r="O23" s="3">
         <v>-500</v>
       </c>
       <c r="P23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
+      <c r="R23" s="3">
+        <v>0</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
@@ -1535,8 +1578,11 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1591,8 +1637,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,55 +1696,58 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-500</v>
       </c>
       <c r="O26" s="3">
         <v>-500</v>
       </c>
       <c r="P26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
+      <c r="R26" s="3">
+        <v>0</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
@@ -1703,55 +1755,58 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-500</v>
       </c>
       <c r="O27" s="3">
         <v>-500</v>
       </c>
       <c r="P27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
+      <c r="R27" s="3">
+        <v>0</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
@@ -1759,8 +1814,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,8 +2050,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1998,20 +2068,20 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2030,8 +2100,8 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2039,55 +2109,58 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-500</v>
       </c>
       <c r="O33" s="3">
         <v>-500</v>
       </c>
       <c r="P33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
+      <c r="R33" s="3">
+        <v>0</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
@@ -2095,8 +2168,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,55 +2227,58 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-500</v>
       </c>
       <c r="O35" s="3">
         <v>-500</v>
       </c>
       <c r="P35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
+      <c r="R35" s="3">
+        <v>0</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
@@ -2207,69 +2286,75 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,31 +2398,32 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -2354,22 +2441,25 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2424,8 +2514,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2480,8 +2573,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2492,7 +2588,7 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -2512,8 +2608,8 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2623,8 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2536,8 +2632,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2551,19 +2650,19 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2572,7 +2671,7 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2583,8 +2682,8 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
@@ -2592,22 +2691,25 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
-      </c>
-      <c r="G46" s="3">
-        <v>600</v>
       </c>
       <c r="H46" s="3">
         <v>600</v>
@@ -2616,40 +2718,43 @@
         <v>600</v>
       </c>
       <c r="J46" s="3">
+        <v>600</v>
+      </c>
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2681,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>500</v>
@@ -2690,22 +2795,25 @@
         <v>500</v>
       </c>
       <c r="P47" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q47" s="3">
         <v>300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>200</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2760,8 +2868,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2816,8 +2927,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,8 +3045,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2984,8 +3104,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,22 +3163,25 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>600</v>
       </c>
       <c r="H54" s="3">
         <v>600</v>
@@ -3064,19 +3190,19 @@
         <v>600</v>
       </c>
       <c r="J54" s="3">
+        <v>600</v>
+      </c>
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>600</v>
       </c>
       <c r="O54" s="3">
         <v>600</v>
@@ -3085,19 +3211,22 @@
         <v>600</v>
       </c>
       <c r="Q54" s="3">
+        <v>600</v>
+      </c>
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,8 +3270,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3155,16 +3286,16 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -3179,7 +3310,7 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3187,8 +3318,8 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
@@ -3196,43 +3327,46 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>500</v>
       </c>
       <c r="K58" s="3">
         <v>500</v>
       </c>
       <c r="L58" s="3">
+        <v>500</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -3243,8 +3377,8 @@
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
+      <c r="R58" s="3">
+        <v>100</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
@@ -3252,31 +3386,34 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -3285,78 +3422,81 @@
         <v>300</v>
       </c>
       <c r="M59" s="3">
+        <v>300</v>
+      </c>
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>900</v>
       </c>
       <c r="F60" s="3">
         <v>900</v>
       </c>
       <c r="G60" s="3">
+        <v>900</v>
+      </c>
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>800</v>
       </c>
       <c r="L60" s="3">
         <v>800</v>
       </c>
       <c r="M60" s="3">
+        <v>800</v>
+      </c>
+      <c r="N60" s="3">
         <v>1200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
       </c>
       <c r="P60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
+      <c r="R60" s="3">
+        <v>200</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
@@ -3364,32 +3504,35 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3420,8 +3563,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3476,8 +3622,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,55 +3799,58 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>800</v>
       </c>
       <c r="L66" s="3">
         <v>800</v>
       </c>
       <c r="M66" s="3">
+        <v>800</v>
+      </c>
+      <c r="N66" s="3">
         <v>1200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>300</v>
       </c>
       <c r="O66" s="3">
         <v>300</v>
       </c>
       <c r="P66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
+      <c r="R66" s="3">
+        <v>200</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
@@ -3700,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,64 +4117,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,64 +4353,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-800</v>
       </c>
       <c r="I76" s="3">
         <v>-800</v>
       </c>
       <c r="J76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-500</v>
       </c>
       <c r="M76" s="3">
         <v>-500</v>
       </c>
       <c r="N76" s="3">
-        <v>300</v>
+        <v>-500</v>
       </c>
       <c r="O76" s="3">
         <v>300</v>
       </c>
       <c r="P76" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q76" s="3">
         <v>400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>500</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,116 +4471,122 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-500</v>
       </c>
       <c r="O81" s="3">
         <v>-500</v>
       </c>
       <c r="P81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
+      <c r="R81" s="3">
+        <v>0</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
@@ -4399,8 +4594,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,8 +4619,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4477,8 +4676,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,8 +4971,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4781,31 +4998,31 @@
         <v>-200</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
+      <c r="R89" s="3">
+        <v>0</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
@@ -4813,8 +5030,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,8 +5055,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4891,8 +5112,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,8 +5230,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5045,22 +5275,25 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,64 +5548,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>300</v>
       </c>
       <c r="I100" s="3">
         <v>300</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5417,22 +5666,25 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>100</v>
@@ -5441,36 +5693,39 @@
         <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-200</v>
       </c>
       <c r="Q102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>ALDS</t>
   </si>
@@ -1209,8 +1209,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>800</v>
       </c>
       <c r="E17" s="3">
         <v>600</v>
@@ -1704,8 +1704,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-900</v>
       </c>
       <c r="E26" s="3">
         <v>-700</v>
@@ -1763,8 +1763,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-900</v>
       </c>
       <c r="E27" s="3">
         <v>-700</v>
@@ -2117,8 +2117,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-900</v>
       </c>
       <c r="E33" s="3">
         <v>-700</v>
@@ -2235,8 +2235,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-900</v>
       </c>
       <c r="E35" s="3">
         <v>-700</v>
@@ -2699,8 +2699,8 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>300</v>
@@ -3336,7 +3336,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E58" s="3">
         <v>1400</v>
@@ -3395,7 +3395,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -4126,7 +4126,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12400</v>
+        <v>-12400</v>
       </c>
       <c r="E72" s="3">
         <v>-11500</v>
@@ -4543,8 +4543,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-900</v>
       </c>
       <c r="E81" s="3">
         <v>-700</v>
@@ -5675,7 +5675,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>-200</v>

--- a/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>ALDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,95 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,8 +811,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -842,8 +849,8 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
@@ -866,8 +873,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,8 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
@@ -925,8 +935,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,8 +961,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,8 +1083,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1099,13 +1119,13 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
@@ -1116,8 +1136,8 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1125,8 +1145,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,58 +1230,59 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>800</v>
       </c>
       <c r="I17" s="3">
         <v>800</v>
       </c>
       <c r="J17" s="3">
+        <v>800</v>
+      </c>
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
       </c>
       <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
+      <c r="S17" s="3">
+        <v>0</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
@@ -1263,8 +1290,11 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1272,49 +1302,49 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-800</v>
       </c>
       <c r="I18" s="3">
         <v>-800</v>
       </c>
       <c r="J18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-500</v>
       </c>
       <c r="P18" s="3">
         <v>-500</v>
       </c>
       <c r="Q18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
+      <c r="S18" s="3">
+        <v>0</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
@@ -1322,8 +1352,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,8 +1378,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1363,20 +1397,20 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1395,8 +1429,8 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
@@ -1404,23 +1438,26 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1463,13 +1500,16 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1484,23 +1524,23 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1513,8 +1553,8 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
@@ -1522,58 +1562,61 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-500</v>
       </c>
       <c r="P23" s="3">
         <v>-500</v>
       </c>
       <c r="Q23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
+      <c r="S23" s="3">
+        <v>0</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
@@ -1581,8 +1624,11 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1640,8 +1686,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,58 +1748,61 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-500</v>
       </c>
       <c r="P26" s="3">
         <v>-500</v>
       </c>
       <c r="Q26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
+      <c r="S26" s="3">
+        <v>0</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
@@ -1758,58 +1810,61 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-500</v>
       </c>
       <c r="P27" s="3">
         <v>-500</v>
       </c>
       <c r="Q27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
+      <c r="S27" s="3">
+        <v>0</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
@@ -1817,8 +1872,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,8 +2120,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2071,20 +2141,20 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2103,8 +2173,8 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
@@ -2112,58 +2182,61 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-500</v>
       </c>
       <c r="P33" s="3">
         <v>-500</v>
       </c>
       <c r="Q33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
+      <c r="S33" s="3">
+        <v>0</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
@@ -2171,8 +2244,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,58 +2306,61 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-500</v>
       </c>
       <c r="P35" s="3">
         <v>-500</v>
       </c>
       <c r="Q35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
+      <c r="S35" s="3">
+        <v>0</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
@@ -2289,72 +2368,78 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,8 +2485,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2408,25 +2495,25 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -2444,22 +2531,25 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,8 +2607,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2576,8 +2669,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2591,7 +2687,7 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -2611,8 +2707,8 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
@@ -2626,8 +2722,8 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2635,8 +2731,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2653,19 +2752,19 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2674,7 +2773,7 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2685,8 +2784,8 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
@@ -2694,25 +2793,28 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>600</v>
       </c>
       <c r="I46" s="3">
         <v>600</v>
@@ -2721,40 +2823,43 @@
         <v>600</v>
       </c>
       <c r="K46" s="3">
+        <v>600</v>
+      </c>
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2789,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>500</v>
@@ -2798,22 +2903,25 @@
         <v>500</v>
       </c>
       <c r="Q47" s="3">
+        <v>500</v>
+      </c>
+      <c r="R47" s="3">
         <v>300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>200</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2871,8 +2979,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2930,8 +3041,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,8 +3165,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3107,8 +3227,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,25 +3289,28 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>600</v>
       </c>
       <c r="I54" s="3">
         <v>600</v>
@@ -3193,19 +3319,19 @@
         <v>600</v>
       </c>
       <c r="K54" s="3">
+        <v>600</v>
+      </c>
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
-      </c>
-      <c r="O54" s="3">
-        <v>600</v>
       </c>
       <c r="P54" s="3">
         <v>600</v>
@@ -3214,19 +3340,22 @@
         <v>600</v>
       </c>
       <c r="R54" s="3">
+        <v>600</v>
+      </c>
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,13 +3401,14 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -3289,16 +3420,16 @@
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -3313,7 +3444,7 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3321,8 +3452,8 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
+      <c r="S57" s="3">
+        <v>0</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
@@ -3330,46 +3461,49 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
-      </c>
-      <c r="K58" s="3">
-        <v>500</v>
       </c>
       <c r="L58" s="3">
         <v>500</v>
       </c>
       <c r="M58" s="3">
+        <v>500</v>
+      </c>
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -3380,8 +3514,8 @@
       <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
+      <c r="S58" s="3">
+        <v>100</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
@@ -3389,34 +3523,37 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
@@ -3425,81 +3562,84 @@
         <v>300</v>
       </c>
       <c r="N59" s="3">
+        <v>300</v>
+      </c>
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>900</v>
       </c>
       <c r="G60" s="3">
         <v>900</v>
       </c>
       <c r="H60" s="3">
+        <v>900</v>
+      </c>
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>800</v>
       </c>
       <c r="M60" s="3">
         <v>800</v>
       </c>
       <c r="N60" s="3">
+        <v>800</v>
+      </c>
+      <c r="O60" s="3">
         <v>1200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
       </c>
       <c r="Q60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
+      <c r="S60" s="3">
+        <v>200</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
@@ -3507,8 +3647,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3516,26 +3659,26 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3566,8 +3709,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3625,8 +3771,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,58 +3957,61 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>800</v>
       </c>
       <c r="M66" s="3">
         <v>800</v>
       </c>
       <c r="N66" s="3">
+        <v>800</v>
+      </c>
+      <c r="O66" s="3">
         <v>1200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>300</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
       </c>
       <c r="Q66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
+      <c r="S66" s="3">
+        <v>200</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
@@ -3861,8 +4019,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,67 +4291,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,67 +4539,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-800</v>
       </c>
       <c r="J76" s="3">
         <v>-800</v>
       </c>
       <c r="K76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-500</v>
       </c>
       <c r="N76" s="3">
         <v>-500</v>
       </c>
       <c r="O76" s="3">
-        <v>300</v>
+        <v>-500</v>
       </c>
       <c r="P76" s="3">
         <v>300</v>
       </c>
       <c r="Q76" s="3">
+        <v>300</v>
+      </c>
+      <c r="R76" s="3">
         <v>400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>500</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,122 +4663,128 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-500</v>
       </c>
       <c r="P81" s="3">
         <v>-500</v>
       </c>
       <c r="Q81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
+      <c r="S81" s="3">
+        <v>0</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
@@ -4597,8 +4792,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,8 +4818,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4679,8 +4878,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,8 +5188,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5001,31 +5218,31 @@
         <v>-200</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
+      <c r="S89" s="3">
+        <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
@@ -5033,8 +5250,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,8 +5276,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5115,8 +5336,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,8 +5460,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5278,22 +5508,25 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,67 +5794,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
-      </c>
-      <c r="I100" s="3">
-        <v>300</v>
       </c>
       <c r="J100" s="3">
         <v>300</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5669,25 +5918,28 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
@@ -5696,36 +5948,39 @@
         <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>-200</v>
       </c>
       <c r="R102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
   <si>
     <t>ALDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,102 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -814,8 +821,14 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -852,11 +865,11 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
@@ -876,8 +889,14 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,11 +933,11 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
@@ -938,8 +957,14 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +987,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1024,8 +1051,14 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,8 +1119,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1122,16 +1161,16 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
@@ -1139,17 +1178,23 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1255,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,70 +1282,78 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
-        <v>800</v>
-      </c>
       <c r="F17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G17" s="3">
         <v>800</v>
       </c>
       <c r="H17" s="3">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>800</v>
       </c>
       <c r="J17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>800</v>
+      </c>
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
+      <c r="U17" s="3">
+        <v>0</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1302,61 +1361,67 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="F18" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="G18" s="3">
         <v>-800</v>
       </c>
       <c r="H18" s="3">
-        <v>-1300</v>
+        <v>-600</v>
       </c>
       <c r="I18" s="3">
         <v>-800</v>
       </c>
       <c r="J18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
+      <c r="U18" s="3">
+        <v>0</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,8 +1444,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1388,10 +1455,10 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1400,23 +1467,23 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1432,38 +1499,44 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1576,14 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1515,7 +1594,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1527,16 +1606,16 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1545,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1556,79 +1635,91 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-700</v>
       </c>
       <c r="G23" s="3">
         <v>-900</v>
       </c>
       <c r="H23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
+      <c r="U23" s="3">
+        <v>0</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1689,8 +1780,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1848,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-700</v>
       </c>
       <c r="G26" s="3">
         <v>-900</v>
       </c>
       <c r="H26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
+      <c r="U26" s="3">
+        <v>0</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-700</v>
       </c>
       <c r="G27" s="3">
         <v>-900</v>
       </c>
       <c r="H27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
+      <c r="U27" s="3">
+        <v>0</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +2052,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1999,8 +2120,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2188,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,8 +2256,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2132,10 +2271,10 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2144,23 +2283,23 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2176,79 +2315,91 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-700</v>
       </c>
       <c r="G33" s="3">
         <v>-900</v>
       </c>
       <c r="H33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
+      <c r="U33" s="3">
+        <v>0</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2460,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-700</v>
       </c>
       <c r="G35" s="3">
         <v>-900</v>
       </c>
       <c r="H35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
+      <c r="U35" s="3">
+        <v>0</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2631,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,40 +2657,42 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>300</v>
       </c>
       <c r="I41" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J41" s="3">
         <v>300</v>
       </c>
       <c r="K41" s="3">
+        <v>400</v>
+      </c>
+      <c r="L41" s="3">
+        <v>300</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -2534,22 +2707,28 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2610,8 +2789,14 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2672,8 +2857,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2690,10 +2881,10 @@
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2710,11 +2901,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
@@ -2725,17 +2916,23 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2755,31 +2952,31 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2787,31 +2984,37 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>300</v>
       </c>
       <c r="G46" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>300</v>
@@ -2820,46 +3023,52 @@
         <v>600</v>
       </c>
       <c r="J46" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>600</v>
       </c>
       <c r="L46" s="3">
+        <v>600</v>
+      </c>
+      <c r="M46" s="3">
+        <v>600</v>
+      </c>
+      <c r="N46" s="3">
         <v>500</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2897,31 +3106,37 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>500</v>
       </c>
       <c r="R47" s="3">
+        <v>500</v>
+      </c>
+      <c r="S47" s="3">
+        <v>500</v>
+      </c>
+      <c r="T47" s="3">
         <v>300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>200</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2982,8 +3197,14 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3044,8 +3265,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3333,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,8 +3401,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3230,8 +3469,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,22 +3537,28 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
-      </c>
-      <c r="E54" s="3">
-        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
       </c>
       <c r="G54" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="H54" s="3">
         <v>300</v>
@@ -3316,46 +3567,52 @@
         <v>600</v>
       </c>
       <c r="J54" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K54" s="3">
         <v>600</v>
       </c>
       <c r="L54" s="3">
+        <v>600</v>
+      </c>
+      <c r="M54" s="3">
+        <v>600</v>
+      </c>
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
-      </c>
-      <c r="P54" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>600</v>
       </c>
       <c r="R54" s="3">
         <v>600</v>
       </c>
       <c r="S54" s="3">
+        <v>600</v>
+      </c>
+      <c r="T54" s="3">
+        <v>600</v>
+      </c>
+      <c r="U54" s="3">
         <v>700</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3635,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,8 +3661,10 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3411,10 +3672,10 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -3423,10 +3684,10 @@
         <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -3435,7 +3696,7 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3447,69 +3708,75 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -3517,79 +3784,91 @@
       <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
+        <v>100</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
       </c>
       <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>100</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>100</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3597,61 +3876,67 @@
         <v>1000</v>
       </c>
       <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3662,29 +3947,29 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
+        <v>100</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3712,8 +3997,14 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3774,8 +4065,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +4133,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4201,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,8 +4269,14 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3969,61 +4284,67 @@
         <v>1100</v>
       </c>
       <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4367,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4431,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4499,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4567,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,70 +4635,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-13400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-12400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-11500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-9800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-7700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4771,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4839,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,70 +4907,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1800</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1300</v>
       </c>
       <c r="H76" s="3">
         <v>-1400</v>
       </c>
       <c r="I76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>500</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +5043,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-700</v>
       </c>
       <c r="G81" s="3">
         <v>-900</v>
       </c>
       <c r="H81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
+      <c r="U81" s="3">
+        <v>0</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,8 +5214,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4881,8 +5278,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5346,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5414,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5482,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5550,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,8 +5618,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5221,40 +5654,46 @@
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,8 +5716,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5339,8 +5780,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5848,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,8 +5916,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5511,22 +5970,28 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +6014,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +6078,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +6146,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +6214,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,70 +6282,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5921,66 +6418,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G102" s="3">
-        <v>300</v>
       </c>
       <c r="H102" s="3">
         <v>-200</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="K102" s="3">
         <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>ALDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,106 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -827,8 +831,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -871,8 +878,8 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
@@ -895,8 +902,11 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,8 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
@@ -963,8 +973,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,8 +1002,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1057,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1125,8 +1142,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1167,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
@@ -1184,8 +1204,8 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1193,8 +1213,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1261,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,8 +1310,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1293,58 +1320,58 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F17" s="3">
         <v>700</v>
       </c>
       <c r="G17" s="3">
+        <v>700</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
       </c>
       <c r="M17" s="3">
+        <v>800</v>
+      </c>
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>500</v>
       </c>
       <c r="S17" s="3">
         <v>500</v>
       </c>
       <c r="T17" s="3">
+        <v>500</v>
+      </c>
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
+      <c r="V17" s="3">
+        <v>0</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
@@ -1352,8 +1379,11 @@
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1361,58 +1391,58 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F18" s="3">
         <v>-700</v>
       </c>
       <c r="G18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-800</v>
       </c>
       <c r="L18" s="3">
         <v>-800</v>
       </c>
       <c r="M18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-500</v>
       </c>
       <c r="S18" s="3">
         <v>-500</v>
       </c>
       <c r="T18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
+      <c r="V18" s="3">
+        <v>0</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
@@ -1420,8 +1450,11 @@
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1446,8 +1479,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1458,11 +1492,11 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1473,20 +1507,20 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1505,8 +1539,8 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
+      <c r="V20" s="3">
+        <v>0</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
@@ -1514,8 +1548,11 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1523,23 +1560,23 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1582,22 +1619,25 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1612,23 +1652,23 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1641,8 +1681,8 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
@@ -1650,67 +1690,70 @@
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-500</v>
       </c>
       <c r="S23" s="3">
         <v>-500</v>
       </c>
       <c r="T23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
+      <c r="V23" s="3">
+        <v>0</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
@@ -1718,8 +1761,11 @@
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1786,8 +1832,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1854,67 +1903,70 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-500</v>
       </c>
       <c r="S26" s="3">
         <v>-500</v>
       </c>
       <c r="T26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
+      <c r="V26" s="3">
+        <v>0</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
@@ -1922,67 +1974,70 @@
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-500</v>
       </c>
       <c r="S27" s="3">
         <v>-500</v>
       </c>
       <c r="T27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
+      <c r="V27" s="3">
+        <v>0</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
@@ -1990,8 +2045,11 @@
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2058,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2126,8 +2187,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2262,8 +2329,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2274,11 +2344,11 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2289,20 +2359,20 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2321,8 +2391,8 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
+      <c r="V32" s="3">
+        <v>0</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
@@ -2330,67 +2400,70 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-500</v>
       </c>
       <c r="S33" s="3">
         <v>-500</v>
       </c>
       <c r="T33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
+      <c r="V33" s="3">
+        <v>0</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
@@ -2398,8 +2471,11 @@
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2466,67 +2542,70 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-500</v>
       </c>
       <c r="S35" s="3">
         <v>-500</v>
       </c>
       <c r="T35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
+      <c r="V35" s="3">
+        <v>0</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
@@ -2534,81 +2613,87 @@
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2633,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2659,8 +2745,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2668,7 +2755,7 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
@@ -2677,25 +2764,25 @@
         <v>200</v>
       </c>
       <c r="H41" s="3">
+        <v>200</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
@@ -2713,22 +2800,25 @@
         <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>600</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2795,8 +2885,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2863,8 +2956,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2887,7 +2983,7 @@
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2907,8 +3003,8 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
@@ -2922,8 +3018,8 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -2931,8 +3027,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2958,19 +3057,19 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2979,7 +3078,7 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2990,8 +3089,8 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
@@ -2999,8 +3098,11 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3008,25 +3110,25 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>300</v>
       </c>
       <c r="G46" s="3">
+        <v>300</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
-      </c>
-      <c r="K46" s="3">
-        <v>600</v>
       </c>
       <c r="L46" s="3">
         <v>600</v>
@@ -3035,40 +3137,43 @@
         <v>600</v>
       </c>
       <c r="N46" s="3">
+        <v>600</v>
+      </c>
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
       </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3112,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>500</v>
@@ -3121,22 +3226,25 @@
         <v>500</v>
       </c>
       <c r="T47" s="3">
+        <v>500</v>
+      </c>
+      <c r="U47" s="3">
         <v>300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>200</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3203,8 +3311,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3271,8 +3382,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3407,8 +3524,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3475,8 +3595,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,8 +3666,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3552,25 +3678,25 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
       </c>
       <c r="G54" s="3">
+        <v>300</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>600</v>
       </c>
       <c r="L54" s="3">
         <v>600</v>
@@ -3579,19 +3705,19 @@
         <v>600</v>
       </c>
       <c r="N54" s="3">
+        <v>600</v>
+      </c>
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
-      </c>
-      <c r="R54" s="3">
-        <v>600</v>
       </c>
       <c r="S54" s="3">
         <v>600</v>
@@ -3600,19 +3726,22 @@
         <v>600</v>
       </c>
       <c r="U54" s="3">
+        <v>600</v>
+      </c>
+      <c r="V54" s="3">
         <v>700</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3637,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3663,8 +3793,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3678,7 +3809,7 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -3690,16 +3821,16 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3714,7 +3845,7 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -3722,8 +3853,8 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
+      <c r="V57" s="3">
+        <v>0</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
@@ -3731,8 +3862,11 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3740,46 +3874,46 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>500</v>
       </c>
       <c r="O58" s="3">
         <v>500</v>
       </c>
       <c r="P58" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
-      </c>
-      <c r="R58" s="3">
-        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
@@ -3790,8 +3924,8 @@
       <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
+      <c r="V58" s="3">
+        <v>100</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>3</v>
@@ -3799,43 +3933,46 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E59" s="3">
         <v>700</v>
       </c>
       <c r="F59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
@@ -3844,31 +3981,34 @@
         <v>300</v>
       </c>
       <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3876,58 +4016,58 @@
         <v>1000</v>
       </c>
       <c r="E60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>900</v>
       </c>
       <c r="J60" s="3">
         <v>900</v>
       </c>
       <c r="K60" s="3">
+        <v>900</v>
+      </c>
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
-      </c>
-      <c r="O60" s="3">
-        <v>800</v>
       </c>
       <c r="P60" s="3">
         <v>800</v>
       </c>
       <c r="Q60" s="3">
+        <v>800</v>
+      </c>
+      <c r="R60" s="3">
         <v>1200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>300</v>
       </c>
       <c r="S60" s="3">
         <v>300</v>
       </c>
       <c r="T60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
+      <c r="V60" s="3">
+        <v>200</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
@@ -3935,13 +4075,16 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -3953,26 +4096,26 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4003,8 +4146,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4071,8 +4217,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4139,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4275,67 +4430,70 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
-      </c>
-      <c r="O66" s="3">
-        <v>800</v>
       </c>
       <c r="P66" s="3">
         <v>800</v>
       </c>
       <c r="Q66" s="3">
+        <v>800</v>
+      </c>
+      <c r="R66" s="3">
         <v>1200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>300</v>
       </c>
       <c r="S66" s="3">
         <v>300</v>
       </c>
       <c r="T66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U66" s="3">
         <v>200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
+      <c r="V66" s="3">
+        <v>200</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
@@ -4343,8 +4501,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4369,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4573,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-200</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4777,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4845,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4913,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-800</v>
       </c>
       <c r="M76" s="3">
         <v>-800</v>
       </c>
       <c r="N76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-600</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-500</v>
       </c>
       <c r="Q76" s="3">
         <v>-500</v>
       </c>
       <c r="R76" s="3">
-        <v>300</v>
+        <v>-500</v>
       </c>
       <c r="S76" s="3">
         <v>300</v>
       </c>
       <c r="T76" s="3">
+        <v>300</v>
+      </c>
+      <c r="U76" s="3">
         <v>400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>500</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5049,140 +5238,146 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-500</v>
       </c>
       <c r="S81" s="3">
         <v>-500</v>
       </c>
       <c r="T81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
+      <c r="V81" s="3">
+        <v>0</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
@@ -5190,8 +5385,11 @@
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5216,8 +5414,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5284,8 +5483,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5352,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5488,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5556,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5624,8 +5838,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5660,31 +5877,31 @@
         <v>-200</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
+      <c r="V89" s="3">
+        <v>0</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
@@ -5692,8 +5909,11 @@
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5718,8 +5938,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5786,8 +6007,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5854,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5922,8 +6149,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5976,22 +6206,25 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6084,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6220,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6288,8 +6531,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6297,67 +6543,70 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
-      </c>
-      <c r="L100" s="3">
-        <v>300</v>
       </c>
       <c r="M100" s="3">
         <v>300</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6424,8 +6673,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6433,25 +6685,25 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>100</v>
@@ -6460,36 +6712,39 @@
         <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
         <v>-200</v>
       </c>
       <c r="U102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>ALDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,110 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -834,8 +838,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -881,8 +888,8 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
@@ -905,8 +912,11 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,8 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
+      <c r="R10" s="3">
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
@@ -976,8 +986,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1003,8 +1016,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1074,8 +1088,11 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,8 +1162,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1190,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>500</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
@@ -1207,8 +1227,8 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1216,8 +1236,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,8 +1310,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,70 +1337,71 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
         <v>800</v>
       </c>
       <c r="F17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G17" s="3">
         <v>700</v>
       </c>
       <c r="H17" s="3">
+        <v>700</v>
+      </c>
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>800</v>
       </c>
       <c r="N17" s="3">
+        <v>800</v>
+      </c>
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>500</v>
       </c>
       <c r="T17" s="3">
         <v>500</v>
       </c>
       <c r="U17" s="3">
+        <v>500</v>
+      </c>
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
+      <c r="W17" s="3">
+        <v>0</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
@@ -1382,8 +1409,11 @@
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1394,58 +1424,58 @@
         <v>-800</v>
       </c>
       <c r="F18" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G18" s="3">
         <v>-700</v>
       </c>
       <c r="H18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-800</v>
       </c>
       <c r="M18" s="3">
         <v>-800</v>
       </c>
       <c r="N18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-500</v>
       </c>
       <c r="T18" s="3">
         <v>-500</v>
       </c>
       <c r="U18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
+      <c r="W18" s="3">
+        <v>0</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
@@ -1453,8 +1483,11 @@
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,8 +1513,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1495,11 +1529,11 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1510,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1542,8 +1576,8 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
+      <c r="W20" s="3">
+        <v>0</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
@@ -1551,8 +1585,11 @@
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1563,23 +1600,23 @@
         <v>-700</v>
       </c>
       <c r="F21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1622,26 +1659,29 @@
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
@@ -1655,22 +1695,22 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1684,8 +1724,8 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
@@ -1693,70 +1733,73 @@
       <c r="Y22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-500</v>
       </c>
       <c r="T23" s="3">
         <v>-500</v>
       </c>
       <c r="U23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
+      <c r="W23" s="3">
+        <v>0</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
@@ -1764,8 +1807,11 @@
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1835,8 +1881,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,70 +1955,73 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-500</v>
       </c>
       <c r="T26" s="3">
         <v>-500</v>
       </c>
       <c r="U26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
+      <c r="W26" s="3">
+        <v>0</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
@@ -1977,70 +2029,73 @@
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-500</v>
       </c>
       <c r="T27" s="3">
         <v>-500</v>
       </c>
       <c r="U27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
+      <c r="W27" s="3">
+        <v>0</v>
       </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
@@ -2048,8 +2103,11 @@
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,8 +2177,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2190,8 +2251,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,8 +2399,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2347,10 +2417,10 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2362,20 +2432,20 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2394,8 +2464,8 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
+      <c r="W32" s="3">
+        <v>0</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
@@ -2403,70 +2473,73 @@
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-500</v>
       </c>
       <c r="T33" s="3">
         <v>-500</v>
       </c>
       <c r="U33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
+      <c r="W33" s="3">
+        <v>0</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
@@ -2474,8 +2547,11 @@
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,70 +2621,73 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-500</v>
       </c>
       <c r="T35" s="3">
         <v>-500</v>
       </c>
       <c r="U35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
+      <c r="W35" s="3">
+        <v>0</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
@@ -2616,84 +2695,90 @@
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,8 +2832,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2758,7 +2845,7 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
@@ -2767,26 +2854,26 @@
         <v>200</v>
       </c>
       <c r="I41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
@@ -2803,22 +2890,25 @@
         <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>600</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2888,8 +2978,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2959,8 +3052,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2986,7 +3082,7 @@
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -3006,8 +3102,8 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
+      <c r="R44" s="3">
+        <v>0</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
@@ -3021,8 +3117,8 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
+      <c r="W44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
@@ -3030,8 +3126,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3060,20 +3159,20 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
@@ -3081,7 +3180,7 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3092,8 +3191,8 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>3</v>
@@ -3101,8 +3200,11 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3113,25 +3215,25 @@
         <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>300</v>
       </c>
       <c r="H46" s="3">
+        <v>300</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>600</v>
       </c>
       <c r="M46" s="3">
         <v>600</v>
@@ -3140,40 +3242,43 @@
         <v>600</v>
       </c>
       <c r="O46" s="3">
+        <v>600</v>
+      </c>
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
       <c r="T46" s="3">
         <v>100</v>
       </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3220,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
         <v>500</v>
@@ -3229,22 +3334,25 @@
         <v>500</v>
       </c>
       <c r="U47" s="3">
+        <v>500</v>
+      </c>
+      <c r="V47" s="3">
         <v>300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>200</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3314,8 +3422,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3385,8 +3496,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,8 +3644,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3598,8 +3718,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,8 +3792,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3681,25 +3807,25 @@
         <v>200</v>
       </c>
       <c r="F54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>300</v>
       </c>
       <c r="H54" s="3">
+        <v>300</v>
+      </c>
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>600</v>
       </c>
       <c r="M54" s="3">
         <v>600</v>
@@ -3708,19 +3834,19 @@
         <v>600</v>
       </c>
       <c r="O54" s="3">
+        <v>600</v>
+      </c>
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
-      </c>
-      <c r="S54" s="3">
-        <v>600</v>
       </c>
       <c r="T54" s="3">
         <v>600</v>
@@ -3729,19 +3855,22 @@
         <v>600</v>
       </c>
       <c r="V54" s="3">
+        <v>600</v>
+      </c>
+      <c r="W54" s="3">
         <v>700</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,13 +3924,14 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3812,7 +3943,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -3824,17 +3955,17 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
@@ -3848,7 +3979,7 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
@@ -3856,8 +3987,8 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
+      <c r="W57" s="3">
+        <v>0</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
@@ -3865,59 +3996,62 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
       </c>
       <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
-      </c>
-      <c r="O58" s="3">
-        <v>500</v>
       </c>
       <c r="P58" s="3">
         <v>500</v>
       </c>
       <c r="Q58" s="3">
+        <v>500</v>
+      </c>
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
-        <v>100</v>
-      </c>
       <c r="T58" s="3">
         <v>100</v>
       </c>
@@ -3927,8 +4061,8 @@
       <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>3</v>
+      <c r="W58" s="3">
+        <v>100</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>3</v>
@@ -3936,46 +4070,49 @@
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
-      </c>
-      <c r="E59" s="3">
-        <v>700</v>
       </c>
       <c r="F59" s="3">
         <v>700</v>
       </c>
       <c r="G59" s="3">
+        <v>700</v>
+      </c>
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
       <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
@@ -3984,22 +4121,22 @@
         <v>300</v>
       </c>
       <c r="R59" s="3">
+        <v>300</v>
+      </c>
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
-        <v>100</v>
-      </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>100</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>3</v>
@@ -4007,70 +4144,73 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E60" s="3">
         <v>1000</v>
       </c>
       <c r="F60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>900</v>
       </c>
       <c r="K60" s="3">
         <v>900</v>
       </c>
       <c r="L60" s="3">
+        <v>900</v>
+      </c>
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
-      </c>
-      <c r="P60" s="3">
-        <v>800</v>
       </c>
       <c r="Q60" s="3">
         <v>800</v>
       </c>
       <c r="R60" s="3">
+        <v>800</v>
+      </c>
+      <c r="S60" s="3">
         <v>1200</v>
-      </c>
-      <c r="S60" s="3">
-        <v>300</v>
       </c>
       <c r="T60" s="3">
         <v>300</v>
       </c>
       <c r="U60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
+      <c r="W60" s="3">
+        <v>200</v>
       </c>
       <c r="X60" s="3" t="s">
         <v>3</v>
@@ -4078,8 +4218,11 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4087,7 +4230,7 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -4099,26 +4242,26 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4149,8 +4292,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4220,8 +4366,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,70 +4588,73 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
-      </c>
-      <c r="P66" s="3">
-        <v>800</v>
       </c>
       <c r="Q66" s="3">
         <v>800</v>
       </c>
       <c r="R66" s="3">
+        <v>800</v>
+      </c>
+      <c r="S66" s="3">
         <v>1200</v>
-      </c>
-      <c r="S66" s="3">
-        <v>300</v>
       </c>
       <c r="T66" s="3">
         <v>300</v>
       </c>
       <c r="U66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V66" s="3">
         <v>200</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
+      <c r="W66" s="3">
+        <v>200</v>
       </c>
       <c r="X66" s="3" t="s">
         <v>3</v>
@@ -4504,8 +4662,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +4986,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-200</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5282,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-800</v>
       </c>
       <c r="N76" s="3">
         <v>-800</v>
       </c>
       <c r="O76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-500</v>
       </c>
       <c r="R76" s="3">
         <v>-500</v>
       </c>
       <c r="S76" s="3">
-        <v>300</v>
+        <v>-500</v>
       </c>
       <c r="T76" s="3">
         <v>300</v>
       </c>
       <c r="U76" s="3">
+        <v>300</v>
+      </c>
+      <c r="V76" s="3">
         <v>400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>500</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,146 +5430,152 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-500</v>
       </c>
       <c r="T81" s="3">
         <v>-500</v>
       </c>
       <c r="U81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
+      <c r="W81" s="3">
+        <v>0</v>
       </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
@@ -5388,8 +5583,11 @@
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,8 +5613,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5486,8 +5685,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,13 +6055,16 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
@@ -5880,31 +6097,31 @@
         <v>-200</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
+      <c r="W89" s="3">
+        <v>0</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
@@ -5912,8 +6129,11 @@
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,8 +6159,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6010,8 +6231,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,8 +6379,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6209,22 +6439,25 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6483,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6321,8 +6555,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,8 +6777,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6546,67 +6792,70 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
-      </c>
-      <c r="M100" s="3">
-        <v>300</v>
       </c>
       <c r="N100" s="3">
         <v>300</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6676,38 +6925,41 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
         <v>100</v>
       </c>
@@ -6715,36 +6967,39 @@
         <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>-200</v>
       </c>
       <c r="V102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W102" s="3">
         <v>500</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
